--- a/CSV-Reconcile_Process/Examples/ADC/Reconciled/unmatched_but_100.xlsx
+++ b/CSV-Reconcile_Process/Examples/ADC/Reconciled/unmatched_but_100.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Examples/ADC/Reconciled/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C78985-1764-4142-8349-412F8DDDB0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Look up Best_Match" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -697,8 +703,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,6 +780,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -820,7 +834,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -852,9 +866,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,6 +918,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1061,14 +1111,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1102,7 +1160,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1119,7 +1177,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1194,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1153,7 +1211,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1170,7 +1228,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1187,7 +1245,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +1262,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1221,7 +1279,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1238,7 +1296,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1255,7 +1313,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1272,7 +1330,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1289,7 +1347,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1306,7 +1364,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1323,7 +1381,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1340,7 +1398,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1357,7 +1415,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1374,7 +1432,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1391,7 +1449,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1408,7 +1466,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1425,7 +1483,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1442,7 +1500,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1459,7 +1517,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1476,7 +1534,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1493,7 +1551,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1510,7 +1568,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1527,7 +1585,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1544,7 +1602,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1561,7 +1619,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1578,7 +1636,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1595,7 +1653,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1612,7 +1670,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1629,7 +1687,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1646,7 +1704,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1663,7 +1721,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1680,7 +1738,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1697,7 +1755,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1714,7 +1772,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1731,7 +1789,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1748,7 +1806,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1765,7 +1823,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1782,7 +1840,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1799,7 +1857,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1816,7 +1874,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1833,7 +1891,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1850,7 +1908,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1867,7 +1925,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1884,7 +1942,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1901,7 +1959,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1918,7 +1976,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1935,7 +1993,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1952,7 +2010,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1969,7 +2027,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1986,7 +2044,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -2003,7 +2061,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2020,7 +2078,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2037,7 +2095,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -2054,7 +2112,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -2071,7 +2129,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2088,7 +2146,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -2105,7 +2163,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -2122,7 +2180,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -2139,7 +2197,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -2156,7 +2214,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2173,7 +2231,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -2190,7 +2248,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -2207,7 +2265,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -2224,7 +2282,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -2241,7 +2299,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -2258,7 +2316,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -2275,7 +2333,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -2292,7 +2350,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -2309,7 +2367,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -2328,79 +2386,79 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E19" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
-    <hyperlink ref="E22" r:id="rId21"/>
-    <hyperlink ref="E23" r:id="rId22"/>
-    <hyperlink ref="E24" r:id="rId23"/>
-    <hyperlink ref="E25" r:id="rId24"/>
-    <hyperlink ref="E26" r:id="rId25"/>
-    <hyperlink ref="E27" r:id="rId26"/>
-    <hyperlink ref="E28" r:id="rId27"/>
-    <hyperlink ref="E29" r:id="rId28"/>
-    <hyperlink ref="E30" r:id="rId29"/>
-    <hyperlink ref="E31" r:id="rId30"/>
-    <hyperlink ref="E32" r:id="rId31"/>
-    <hyperlink ref="E33" r:id="rId32"/>
-    <hyperlink ref="E34" r:id="rId33"/>
-    <hyperlink ref="E35" r:id="rId34"/>
-    <hyperlink ref="E36" r:id="rId35"/>
-    <hyperlink ref="E37" r:id="rId36"/>
-    <hyperlink ref="E38" r:id="rId37"/>
-    <hyperlink ref="E39" r:id="rId38"/>
-    <hyperlink ref="E40" r:id="rId39"/>
-    <hyperlink ref="E41" r:id="rId40"/>
-    <hyperlink ref="E42" r:id="rId41"/>
-    <hyperlink ref="E43" r:id="rId42"/>
-    <hyperlink ref="E44" r:id="rId43"/>
-    <hyperlink ref="E45" r:id="rId44"/>
-    <hyperlink ref="E46" r:id="rId45"/>
-    <hyperlink ref="E47" r:id="rId46"/>
-    <hyperlink ref="E48" r:id="rId47"/>
-    <hyperlink ref="E49" r:id="rId48"/>
-    <hyperlink ref="E50" r:id="rId49"/>
-    <hyperlink ref="E51" r:id="rId50"/>
-    <hyperlink ref="E52" r:id="rId51"/>
-    <hyperlink ref="E53" r:id="rId52"/>
-    <hyperlink ref="E54" r:id="rId53"/>
-    <hyperlink ref="E55" r:id="rId54"/>
-    <hyperlink ref="E56" r:id="rId55"/>
-    <hyperlink ref="E57" r:id="rId56"/>
-    <hyperlink ref="E58" r:id="rId57"/>
-    <hyperlink ref="E59" r:id="rId58"/>
-    <hyperlink ref="E60" r:id="rId59"/>
-    <hyperlink ref="E61" r:id="rId60"/>
-    <hyperlink ref="E62" r:id="rId61"/>
-    <hyperlink ref="E63" r:id="rId62"/>
-    <hyperlink ref="E64" r:id="rId63"/>
-    <hyperlink ref="E65" r:id="rId64"/>
-    <hyperlink ref="E66" r:id="rId65"/>
-    <hyperlink ref="E67" r:id="rId66"/>
-    <hyperlink ref="E68" r:id="rId67"/>
-    <hyperlink ref="E69" r:id="rId68"/>
-    <hyperlink ref="E70" r:id="rId69"/>
-    <hyperlink ref="E71" r:id="rId70"/>
-    <hyperlink ref="E72" r:id="rId71"/>
-    <hyperlink ref="E73" r:id="rId72"/>
-    <hyperlink ref="E74" r:id="rId73"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
